--- a/Tabla de Horas.xlsx
+++ b/Tabla de Horas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98771DAD-15AC-443A-B966-0522EA39F2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3F6B4D-8A8E-4991-9B8B-7540BD665C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AA7125D4-4B37-4EF2-8725-B42133C62879}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t xml:space="preserve">Tarea </t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Comunicación y Sincronización Robot–Visión–Lavadora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo </t>
   </si>
 </sst>
 </file>
@@ -194,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -396,11 +399,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -445,11 +509,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="28">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -847,14 +1052,1040 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Horas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> Reales </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36046522309711287"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$41:$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Federico Emanuel Bellomi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nicolás Agustín   De Lio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Elias Valentin Jogar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$41:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-419E-4795-BB61-E584141ADC9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17859</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17859</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7763C93A-89A7-5ECE-30D8-EB077FDCA575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{886C523A-FD2A-4253-BA0D-D4841881C014}" name="Tabla224" displayName="Tabla224" ref="B27:E38" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{886C523A-FD2A-4253-BA0D-D4841881C014}" name="Tabla224" displayName="Tabla224" ref="B27:E38" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="B27:E38" xr:uid="{886C523A-FD2A-4253-BA0D-D4841881C014}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{230A6570-0D5E-479A-AEB4-2300F145A643}" name="Tarea " dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{1495F8A4-F420-4A37-8B83-D39888D95A8A}" name="Horas Estimadas" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{26BDEDAA-9641-454D-9D43-82F951A6BA26}" name="Horas Reales" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{8D421FFC-ECCA-4140-9CD3-51B4CE39649C}" name="Desviación" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{230A6570-0D5E-479A-AEB4-2300F145A643}" name="Tarea " dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{1495F8A4-F420-4A37-8B83-D39888D95A8A}" name="Horas Estimadas" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{26BDEDAA-9641-454D-9D43-82F951A6BA26}" name="Horas Reales" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{8D421FFC-ECCA-4140-9CD3-51B4CE39649C}" name="Desviación" dataDxfId="21">
       <calculatedColumnFormula>D28-C28</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -863,13 +2094,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86224341-B211-48D6-B734-67956133B323}" name="Tabla22" displayName="Tabla22" ref="B14:E25" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86224341-B211-48D6-B734-67956133B323}" name="Tabla22" displayName="Tabla22" ref="B14:E25" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="B14:E25" xr:uid="{86224341-B211-48D6-B734-67956133B323}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{9758B989-628B-4162-9DD9-1731FE232B0A}" name="Tarea " dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{280A7132-D8B9-4CC3-B3FB-F3F06DCA9FAF}" name="Horas Estimadas" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{268375ED-8F86-4156-BFDB-FC99D3D775AF}" name="Horas Reales" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{6C0443DF-9027-4DAE-8F8F-DEFCD117B6AF}" name="Desviación" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{9758B989-628B-4162-9DD9-1731FE232B0A}" name="Tarea " dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{280A7132-D8B9-4CC3-B3FB-F3F06DCA9FAF}" name="Horas Estimadas" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{268375ED-8F86-4156-BFDB-FC99D3D775AF}" name="Horas Reales" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{6C0443DF-9027-4DAE-8F8F-DEFCD117B6AF}" name="Desviación" dataDxfId="14">
       <calculatedColumnFormula>D15-C15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -878,14 +2109,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E5149C7-F235-4A5C-968E-19FC231B1E13}" name="Tabla2" displayName="Tabla2" ref="B1:E12" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E5149C7-F235-4A5C-968E-19FC231B1E13}" name="Tabla2" displayName="Tabla2" ref="B1:E12" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="B1:E12" xr:uid="{6E5149C7-F235-4A5C-968E-19FC231B1E13}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{1546B8DD-F04A-438D-9BE6-12513ABE7940}" name="Tarea " dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{1486B9B3-DE4D-4081-BFE8-010FB84997CD}" name="Horas Estimadas" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{FB444314-100D-47CE-A632-6377012E4490}" name="Horas Reales" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{4EC02C60-822C-40D1-8257-D2163946FFB2}" name="Desviación" dataDxfId="14">
+    <tableColumn id="2" xr3:uid="{1546B8DD-F04A-438D-9BE6-12513ABE7940}" name="Tarea " dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{1486B9B3-DE4D-4081-BFE8-010FB84997CD}" name="Horas Estimadas" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{FB444314-100D-47CE-A632-6377012E4490}" name="Horas Reales" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{4EC02C60-822C-40D1-8257-D2163946FFB2}" name="Desviación" dataDxfId="7">
       <calculatedColumnFormula>D2-C2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{55003150-EEA5-47E6-A368-C5E737581C2A}" name="Tabla26" displayName="Tabla26" ref="B40:E44" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="B40:E44" xr:uid="{55003150-EEA5-47E6-A368-C5E737581C2A}"/>
+  <tableColumns count="4">
+    <tableColumn id="2" xr3:uid="{2800AFB2-9324-4889-894D-DC628E53F263}" name="Alumno" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2A8287DF-A2EF-4B52-8231-202A886E54B2}" name="Horas Estimadas" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8771194E-1E6C-42D6-8D22-BE1BD98F38FB}" name="Horas Reales" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D00C190F-8D4D-4C42-AF82-E3F799D3F4B1}" name="Desviación" dataDxfId="0">
+      <calculatedColumnFormula>D41-C41</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1189,10 +2435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C98954-CA25-41EB-8002-3EC2023C2949}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,18 +3049,106 @@
         <v>50</v>
       </c>
     </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="9">
+        <v>169</v>
+      </c>
+      <c r="D41" s="9">
+        <v>214</v>
+      </c>
+      <c r="E41" s="10">
+        <f>D41-C41</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="2">
+        <v>142</v>
+      </c>
+      <c r="D42" s="2">
+        <v>217</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" ref="E42:E43" si="3">D42-C42</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="24"/>
+      <c r="B43" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="2">
+        <v>151</v>
+      </c>
+      <c r="D43" s="2">
+        <v>201</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="7">
+        <f>SUM(C41:C43)</f>
+        <v>462</v>
+      </c>
+      <c r="D44" s="7">
+        <f>SUM(D41:D43)</f>
+        <v>632</v>
+      </c>
+      <c r="E44" s="7">
+        <f>SUM(E41:E43)</f>
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A15:A24"/>
     <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A41:A43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
-    <tablePart r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>